--- a/first.xlsx
+++ b/first.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{'payment_tokens': [{'id': 13689077, 'symbol': 'ETH', 'address': '0x0000000000000000000000000000000000000000', 'image_url': 'https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg', 'name': 'Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2027.53}, {'id': 12182941, 'symbol': 'DAI', 'address': '0x6b175474e89094c44da98b954eedeac495271d0f', 'image_url': 'https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg', 'name': 'Dai Stablecoin', 'decimals': 18, 'eth_price': 0.0004932109512559617, 'usd_price': 1.0}, {'id': 4645681, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2027.53}, {'id': 4403908, 'symbol': 'USDC', 'address': '0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48', 'image_url': 'https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg', 'name': 'USD Coin', 'decimals': 6, 'eth_price': 0.0004930851824633914, 'usd_price': 0.999745}], 'primary_asset_contracts': [{'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'asset_contract_type': 'non-fungible', 'created_date': '2021-07-16T07:26:50.782759', 'name': 'SupDucks', 'nft_version': '3.0', 'opensea_version': None, 'owner': 56953037, 'schema_name': 'ERC721', 'symbol': 'SD', 'total_supply': '0', 'description': 'The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.', 'external_link': 'https://www.supducks.com/', 'image_url': 'https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120', 'default_to_fiat': False, 'dev_buyer_fee_basis_points': 0, 'dev_seller_fee_basis_points': 300, 'only_proxied_transfers': False, 'opensea_buyer_fee_basis_points': 0, 'opensea_seller_fee_basis_points': 250, 'buyer_fee_basis_points': 0, 'seller_fee_basis_points': 550, 'payout_address': '0xa18a2078d44c93867db711ed80c0e2784bb3c8d3'}], 'traits': {}, 'stats': {'one_day_volume': 101.043394182309, 'one_day_change': -0.24187118609963631, 'one_day_sales': 299.0, 'one_day_average_price': 0.3379377731849799, 'seven_day_volume': 2048.79701789421, 'seven_day_change': 0.0, 'seven_day_sales': 4214.0, 'seven_day_average_price': 0.4861881864960157, 'thirty_day_volume': 2048.79701789421, 'thirty_day_change': 0.0, 'thirty_day_sales': 4214.0, 'thirty_day_average_price': 0.4861881864960157, 'total_volume': 2048.79701789421, 'total_sales': 4215.0, 'total_supply': 10000.0, 'count': 10000.0, 'num_owners': 1889, 'average_price': 0.48607283935805695, 'num_reports': 2, 'market_cap': 4861.881864960157, 'floor_price': 0.23376140674071}, 'banner_image_url': 'https://lh3.googleusercontent.com/x2e2z7u8BvNQkYcMVk5DxCcST7MNlmW1YWP30BLOCOtshz0K2UK09njBvqr-navxoMJUeTzaJOg970EihNXJL4B6R_6KxkwXn7xr=s2500', 'chat_url': None, 'created_date': '2021-07-16T21:40:10.961766', 'default_to_fiat': False, 'description': 'The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.', 'dev_buyer_fee_basis_points': '0', 'dev_seller_fee_basis_points': '300', 'discord_url': 'https://discord.gg/UJCP5y3s7J', 'display_data': {'card_display_style': 'cover'}, 'external_url': 'https://www.supducks.com/', 'featured': False, 'featured_image_url': 'https://lh3.googleusercontent.com/HG-tVz7v1AzMJuFU_WHMoXkR5qupgFk2kqFxPlZVk6OnxxvFr106hcv1GcSFWCJHDlhA0mRke-4KTiqw-h8v-uRsE23ysXkvSvsm=s300', 'hidden': False, 'safelist_request_status': 'verified', 'image_url': 'https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120', 'is_subject_to_whitelist': False, 'large_image_url': 'https://lh3.googleusercontent.com/HG-tVz7v1AzMJuFU_WHMoXkR5qupgFk2kqFxPlZVk6OnxxvFr106hcv1GcSFWCJHDlhA0mRke-4KTiqw-h8v-uRsE23ysXkvSvsm=s300', 'medium_username': None, 'name': 'SupDucks', 'only_proxied_transfers': False, 'opensea_buyer_fee_basis_points': '0', 'opensea_seller_fee_basis_points': '250', 'payout_address': '0xa18a2078d44c93867db711ed80c0e2784bb3c8d3', 'require_email': False, 'short_description': None, 'slug': 'supducks', 'telegram_url': None, 'twitter_username': 'realsupducks', 'instagram_username': None, 'wiki_url': None}</t>
+          <t>{'payment_tokens': [{'id': 13689077, 'symbol': 'ETH', 'address': '0x0000000000000000000000000000000000000000', 'image_url': 'https://storage.opensea.io/files/6f8e2979d428180222796ff4a33ab929.svg', 'name': 'Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2064.03}, {'id': 12182941, 'symbol': 'DAI', 'address': '0x6b175474e89094c44da98b954eedeac495271d0f', 'image_url': 'https://storage.opensea.io/files/8ef8fb3fe707f693e57cdbfea130c24c.svg', 'name': 'Dai Stablecoin', 'decimals': 18, 'eth_price': 0.00048448908203853623, 'usd_price': 1.0}, {'id': 4645681, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': 1.0, 'usd_price': 2064.03}, {'id': 4403908, 'symbol': 'USDC', 'address': '0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48', 'image_url': 'https://storage.opensea.io/files/749015f009a66abcb3bbb3502ae2f1ce.svg', 'name': 'USD Coin', 'decimals': 6, 'eth_price': 0.0004842700929734548, 'usd_price': 0.999548}], 'primary_asset_contracts': [{'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'asset_contract_type': 'non-fungible', 'created_date': '2021-07-16T07:26:50.782759', 'name': 'SupDucks', 'nft_version': '3.0', 'opensea_version': None, 'owner': 56953037, 'schema_name': 'ERC721', 'symbol': 'SD', 'total_supply': '0', 'description': 'The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.', 'external_link': 'https://www.supducks.com/', 'image_url': 'https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120', 'default_to_fiat': False, 'dev_buyer_fee_basis_points': 0, 'dev_seller_fee_basis_points': 300, 'only_proxied_transfers': False, 'opensea_buyer_fee_basis_points': 0, 'opensea_seller_fee_basis_points': 250, 'buyer_fee_basis_points': 0, 'seller_fee_basis_points': 550, 'payout_address': '0xa18a2078d44c93867db711ed80c0e2784bb3c8d3'}], 'traits': {}, 'stats': {'one_day_volume': 117.664697575321, 'one_day_change': 0.6284829264734667, 'one_day_sales': 317.0, 'one_day_average_price': 0.37118201127861516, 'seven_day_volume': 2104.73656844445, 'seven_day_change': 0.0, 'seven_day_sales': 4341.0, 'seven_day_average_price': 0.4848506262253973, 'thirty_day_volume': 2104.73656844445, 'thirty_day_change': 0.0, 'thirty_day_sales': 4341.0, 'thirty_day_average_price': 0.4848506262253973, 'total_volume': 2104.73656844445, 'total_sales': 4343.0, 'total_supply': 10000.0, 'count': 10000.0, 'num_owners': 1912, 'average_price': 0.4846273470975017, 'num_reports': 2, 'market_cap': 4848.506262253974, 'floor_price': 0.269}, 'banner_image_url': 'https://lh3.googleusercontent.com/x2e2z7u8BvNQkYcMVk5DxCcST7MNlmW1YWP30BLOCOtshz0K2UK09njBvqr-navxoMJUeTzaJOg970EihNXJL4B6R_6KxkwXn7xr=s2500', 'chat_url': None, 'created_date': '2021-07-16T21:40:10.961766', 'default_to_fiat': False, 'description': 'The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.', 'dev_buyer_fee_basis_points': '0', 'dev_seller_fee_basis_points': '300', 'discord_url': 'https://discord.gg/UJCP5y3s7J', 'display_data': {'card_display_style': 'cover'}, 'external_url': 'https://www.supducks.com/', 'featured': False, 'featured_image_url': 'https://lh3.googleusercontent.com/HG-tVz7v1AzMJuFU_WHMoXkR5qupgFk2kqFxPlZVk6OnxxvFr106hcv1GcSFWCJHDlhA0mRke-4KTiqw-h8v-uRsE23ysXkvSvsm=s300', 'hidden': False, 'safelist_request_status': 'verified', 'image_url': 'https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120', 'is_subject_to_whitelist': False, 'large_image_url': 'https://lh3.googleusercontent.com/HG-tVz7v1AzMJuFU_WHMoXkR5qupgFk2kqFxPlZVk6OnxxvFr106hcv1GcSFWCJHDlhA0mRke-4KTiqw-h8v-uRsE23ysXkvSvsm=s300', 'medium_username': None, 'name': 'SupDucks', 'only_proxied_transfers': False, 'opensea_buyer_fee_basis_points': '0', 'opensea_seller_fee_basis_points': '250', 'payout_address': '0xa18a2078d44c93867db711ed80c0e2784bb3c8d3', 'require_email': False, 'short_description': None, 'slug': 'supducks', 'telegram_url': None, 'twitter_username': 'realsupducks', 'instagram_username': None, 'wiki_url': None}</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>[{'created_date': '2021-07-22T16:30:59.287580', 'closing_date': '2021-07-23T00:30:58', 'closing_extendable': False, 'expiration_time': 1627000258, 'listing_time': 1626971358, 'order_hash': '0x6c76d6ba1641b5c857b55c9e1786a039897ae56d7d6017b0b8fa9e18fd557d21', 'metadata': {'asset': {'id': '5478', 'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5'}, 'schema': 'ERC721'}, 'exchange': '0x7be8076f4ea4a4ad08075c2508e481d6c946d12b', 'maker': {'user': {'username': 'HerkshireBathawayRealEstate'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/9.png', 'address': '0x0cdc2eceeb718b7febd67d18fd7a2fa36f839fd4', 'config': '', 'discord_id': ''}, 'taker': {'user': {'username': 'NullAddress'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/1.png', 'address': '0x0000000000000000000000000000000000000000', 'config': '', 'discord_id': ''}, 'current_price': '124000000000000000.0000000000', 'current_bounty': '1240000000000000', 'bounty_multiple': '0.01', 'maker_relayer_fee': '0', 'taker_relayer_fee': '550', 'maker_protocol_fee': '0', 'taker_protocol_fee': '0', 'maker_referrer_fee': '0', 'fee_recipient': {'user': {'username': 'OS-Wallet'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/28.png', 'address': '0x5b3256965e7c3cf26e11fcaf296dfc8807c01073', 'config': 'verified', 'discord_id': ''}, 'fee_method': 1, 'side': 0, 'sale_kind': 0, 'target': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'how_to_call': 0, 'calldata': '0x23b872dd00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000cdc2eceeb718b7febd67d18fd7a2fa36f839fd40000000000000000000000000000000000000000000000000000000000001566', 'replacement_pattern': '0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000', 'static_target': '0x0000000000000000000000000000000000000000', 'static_extradata': '0x', 'payment_token': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'payment_token_contract': {'id': 2, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': '1.000000000000000', 'usd_price': '2027.700000000000045000'}, 'base_price': '124000000000000000', 'extra': '0', 'quantity': '1', 'salt': '31853581269842672978680663543497790710541411937446593174980698690364421149162', 'v': 28, 'r': '0xfe1f10f5eee106717e845fcc37a94e07a3ada5db9702ca0c8d60da77aa234c85', 's': '0x15527ba1a80b79a9abffcc8d875efc9721a2f93c7a42e74b02c0e055adb4ab18', 'approved_on_chain': False, 'cancelled': False, 'finalized': False, 'marked_invalid': False, 'prefixed_hash': '0xb26d2778c7e90a642e0d88914f3005348181e34324ff58b8749b2a1f90b9cb38'}, {'created_date': '2021-07-22T13:15:17.264875', 'closing_date': '2021-07-23T10:19:42', 'closing_extendable': False, 'expiration_time': 1627035582, 'listing_time': 1626959612, 'order_hash': '0xef510cdae2f4d94b153a6b71eca83bd81ce0c863b7841d13e10b54b0ddbe8de0', 'metadata': {'asset': {'id': '5478', 'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5'}, 'schema': 'ERC721'}, 'exchange': '0x7be8076f4ea4a4ad08075c2508e481d6c946d12b', 'maker': {'user': {'username': 'Sanders333'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/21.png', 'address': '0x20cc3f4cb2df386f0b82713f0cc5464bfa6c0574', 'config': '', 'discord_id': ''}, 'taker': {'user': {'username': 'NullAddress'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/1.png', 'address': '0x0000000000000000000000000000000000000000', 'config': '', 'discord_id': ''}, 'current_price': '123000000000000000.0000000000', 'current_bounty': '1230000000000000', 'bounty_multiple': '0.01', 'maker_relayer_fee': '0', 'taker_relayer_fee': '550', 'maker_protocol_fee': '0', 'taker_protocol_fee': '0', 'maker_referrer_fee': '0', 'fee_recipient': {'user': {'username': 'OS-Wallet'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/28.png', 'address': '0x5b3256965e7c3cf26e11fcaf296dfc8807c01073', 'config': 'verified', 'discord_id': ''}, 'fee_method': 1, 'side': 0, 'sale_kind': 0, 'target': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'how_to_call': 0, 'calldata': '0x23b872dd000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020cc3f4cb2df386f0b82713f0cc5464bfa6c05740000000000000000000000000000000000000000000000000000000000001566', 'replacement_pattern': '0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000', 'static_target': '0x0000000000000000000000000000000000000000', 'static_extradata': '0x', 'payment_token': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'payment_token_contract': {'id': 2, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': '1.000000000000000', 'usd_price': '2027.700000000000045000'}, 'base_price': '123000000000000000', 'extra': '0', 'quantity': '1', 'salt': '40894784561982867332627611566104062480602654460596944182411762954639387733994', 'v': 27, 'r': '0xec2934828c5ebb8354975fd34b5f3fd51f51e230dd6fe8e97aa78427e5857763', 's': '0x51cf8bf01f1c686bd8e5305214f69115b50dc0b373f12e9ebd514a29ec2eea23', 'approved_on_chain': False, 'cancelled': False, 'finalized': False, 'marked_invalid': False, 'prefixed_hash': '0xba53282646dc38c15244d552e74929520c75411ac688c3cd198fd49c5f8cea34'}]</t>
+          <t>[{'created_date': '2021-07-23T02:26:51.337998', 'closing_date': '2021-07-23T04:26:46', 'closing_extendable': False, 'expiration_time': 1627014406, 'listing_time': 1627007107, 'order_hash': '0x3724a6bad890de8998aed8c6fcc61e5a7dfcd59d953edebee6a53c33495b0e5c', 'metadata': {'asset': {'id': '5478', 'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5'}, 'schema': 'ERC721'}, 'exchange': '0x7be8076f4ea4a4ad08075c2508e481d6c946d12b', 'maker': {'user': {'username': None}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/7.png', 'address': '0x8249b4417d752cda7022554b111a2f7c3323da06', 'config': '', 'discord_id': ''}, 'taker': {'user': {'username': 'NullAddress'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/1.png', 'address': '0x0000000000000000000000000000000000000000', 'config': '', 'discord_id': ''}, 'current_price': '133000000000000000.0000000000', 'current_bounty': '1330000000000000', 'bounty_multiple': '0.01', 'maker_relayer_fee': '0', 'taker_relayer_fee': '550', 'maker_protocol_fee': '0', 'taker_protocol_fee': '0', 'maker_referrer_fee': '0', 'fee_recipient': {'user': {'username': 'OS-Wallet'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/28.png', 'address': '0x5b3256965e7c3cf26e11fcaf296dfc8807c01073', 'config': 'verified', 'discord_id': ''}, 'fee_method': 1, 'side': 0, 'sale_kind': 0, 'target': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'how_to_call': 0, 'calldata': '0x23b872dd00000000000000000000000000000000000000000000000000000000000000000000000000000000000000008249b4417d752cda7022554b111a2f7c3323da060000000000000000000000000000000000000000000000000000000000001566', 'replacement_pattern': '0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000', 'static_target': '0x0000000000000000000000000000000000000000', 'static_extradata': '0x', 'payment_token': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'payment_token_contract': {'id': 2, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': '1.000000000000000', 'usd_price': '2063.719999999999800000'}, 'base_price': '133000000000000000', 'extra': '0', 'quantity': '1', 'salt': '20639483450222611293504570282524924318059802967165126658734627575340007104385', 'v': 28, 'r': '0x59afbdadffc381136184b8dba5373a1cbc830ba0eb9c5c3cee9daba2a5cb5c88', 's': '0x446cad6dde2c0e4626cb6ca5e167ad04463e48778214476bc7436d5c597444d6', 'approved_on_chain': False, 'cancelled': False, 'finalized': False, 'marked_invalid': False, 'prefixed_hash': '0xcb710e83254751118ab63c7bfd620bbae52ce9989fa8d2b9b003a447d537686f'}, {'created_date': '2021-07-23T00:54:15.905532', 'closing_date': '2021-07-23T23:21:19', 'closing_extendable': False, 'expiration_time': 1627082479, 'listing_time': 1627001553, 'order_hash': '0x0d0c7d723f058493c99c90148cad7a5002cd10acf8518b4e5dbdbdc25f998cc7', 'metadata': {'asset': {'id': '5478', 'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5'}, 'schema': 'ERC721'}, 'exchange': '0x7be8076f4ea4a4ad08075c2508e481d6c946d12b', 'maker': {'user': {'username': 'Butters666'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/21.png', 'address': '0x792a4ba75d04ca9ca369328736844e6492808092', 'config': '', 'discord_id': ''}, 'taker': {'user': {'username': 'NullAddress'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/1.png', 'address': '0x0000000000000000000000000000000000000000', 'config': '', 'discord_id': ''}, 'current_price': '130000000000000000.0000000000', 'current_bounty': '1300000000000000', 'bounty_multiple': '0.01', 'maker_relayer_fee': '0', 'taker_relayer_fee': '550', 'maker_protocol_fee': '0', 'taker_protocol_fee': '0', 'maker_referrer_fee': '0', 'fee_recipient': {'user': {'username': 'OS-Wallet'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/28.png', 'address': '0x5b3256965e7c3cf26e11fcaf296dfc8807c01073', 'config': 'verified', 'discord_id': ''}, 'fee_method': 1, 'side': 0, 'sale_kind': 0, 'target': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'how_to_call': 0, 'calldata': '0x23b872dd0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000792a4ba75d04ca9ca369328736844e64928080920000000000000000000000000000000000000000000000000000000000001566', 'replacement_pattern': '0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000', 'static_target': '0x0000000000000000000000000000000000000000', 'static_extradata': '0x', 'payment_token': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'payment_token_contract': {'id': 2, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': '1.000000000000000', 'usd_price': '2063.719999999999800000'}, 'base_price': '130000000000000000', 'extra': '0', 'quantity': '1', 'salt': '18847090867684994452233122722601024441187212529845096456333665889826023711380', 'v': 27, 'r': '0x5d9d0c3ee6dd128aba0788610910d1a26cb6319ea5caa50b5dafa32b9bd40f8f', 's': '0x731176f790b23aecbdfe7e5d110a357782662a295982ae59b65928aa15b91f66', 'approved_on_chain': False, 'cancelled': False, 'finalized': False, 'marked_invalid': False, 'prefixed_hash': '0x924e8e91a363527a0275e8dcfdfa2c15f9b9808f5fa370ba626ff8f35c37c17a'}, {'created_date': '2021-07-22T21:41:13.013857', 'closing_date': '2021-07-23T20:49:31', 'closing_extendable': False, 'expiration_time': 1627073371, 'listing_time': 1626989965, 'order_hash': '0x892b3e5cd161c16ce9afb0f376d2695e5c24b3ce0ad0e54f0a2b24b24c6c6f14', 'metadata': {'asset': {'id': '5478', 'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5'}, 'schema': 'ERC721'}, 'exchange': '0x7be8076f4ea4a4ad08075c2508e481d6c946d12b', 'maker': {'user': {'username': 'Sanders333'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/21.png', 'address': '0x20cc3f4cb2df386f0b82713f0cc5464bfa6c0574', 'config': '', 'discord_id': ''}, 'taker': {'user': {'username': 'NullAddress'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/1.png', 'address': '0x0000000000000000000000000000000000000000', 'config': '', 'discord_id': ''}, 'current_price': '125000000000000000.0000000000', 'current_bounty': '1250000000000000', 'bounty_multiple': '0.01', 'maker_relayer_fee': '0', 'taker_relayer_fee': '550', 'maker_protocol_fee': '0', 'taker_protocol_fee': '0', 'maker_referrer_fee': '0', 'fee_recipient': {'user': {'username': 'OS-Wallet'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/28.png', 'address': '0x5b3256965e7c3cf26e11fcaf296dfc8807c01073', 'config': 'verified', 'discord_id': ''}, 'fee_method': 1, 'side': 0, 'sale_kind': 0, 'target': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'how_to_call': 0, 'calldata': '0x23b872dd000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020cc3f4cb2df386f0b82713f0cc5464bfa6c05740000000000000000000000000000000000000000000000000000000000001566', 'replacement_pattern': '0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000', 'static_target': '0x0000000000000000000000000000000000000000', 'static_extradata': '0x', 'payment_token': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'payment_token_contract': {'id': 2, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': '1.000000000000000', 'usd_price': '2063.719999999999800000'}, 'base_price': '125000000000000000', 'extra': '0', 'quantity': '1', 'salt': '94615897778944020430428835460705028788793008878645173732692119753802041938409', 'v': 27, 'r': '0x31f7b8a330f3091332b28c9bf9c48610a3c27a25e3d00c499d3345d33f68786c', 's': '0x442e954f6537ba7765a19cc92ec8482a9cfa09116446440063b8f44f3b5a67fb', 'approved_on_chain': False, 'cancelled': False, 'finalized': False, 'marked_invalid': False, 'prefixed_hash': '0x7a83c7715aeb54e9611140ef1abc6a92e81fe4a428c2021791b02880bb8283f3'}, {'created_date': '2021-07-22T13:15:17.264875', 'closing_date': '2021-07-23T10:19:42', 'closing_extendable': False, 'expiration_time': 1627035582, 'listing_time': 1626959612, 'order_hash': '0xef510cdae2f4d94b153a6b71eca83bd81ce0c863b7841d13e10b54b0ddbe8de0', 'metadata': {'asset': {'id': '5478', 'address': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5'}, 'schema': 'ERC721'}, 'exchange': '0x7be8076f4ea4a4ad08075c2508e481d6c946d12b', 'maker': {'user': {'username': 'Sanders333'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/21.png', 'address': '0x20cc3f4cb2df386f0b82713f0cc5464bfa6c0574', 'config': '', 'discord_id': ''}, 'taker': {'user': {'username': 'NullAddress'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/1.png', 'address': '0x0000000000000000000000000000000000000000', 'config': '', 'discord_id': ''}, 'current_price': '123000000000000000.0000000000', 'current_bounty': '1230000000000000', 'bounty_multiple': '0.01', 'maker_relayer_fee': '0', 'taker_relayer_fee': '550', 'maker_protocol_fee': '0', 'taker_protocol_fee': '0', 'maker_referrer_fee': '0', 'fee_recipient': {'user': {'username': 'OS-Wallet'}, 'profile_img_url': 'https://storage.googleapis.com/opensea-static/opensea-profile/28.png', 'address': '0x5b3256965e7c3cf26e11fcaf296dfc8807c01073', 'config': 'verified', 'discord_id': ''}, 'fee_method': 1, 'side': 0, 'sale_kind': 0, 'target': '0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5', 'how_to_call': 0, 'calldata': '0x23b872dd000000000000000000000000000000000000000000000000000000000000000000000000000000000000000020cc3f4cb2df386f0b82713f0cc5464bfa6c05740000000000000000000000000000000000000000000000000000000000001566', 'replacement_pattern': '0x00000000ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000', 'static_target': '0x0000000000000000000000000000000000000000', 'static_extradata': '0x', 'payment_token': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'payment_token_contract': {'id': 2, 'symbol': 'WETH', 'address': '0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2', 'image_url': 'https://storage.opensea.io/files/accae6b6fb3888cbff27a013729c22dc.svg', 'name': 'Wrapped Ether', 'decimals': 18, 'eth_price': '1.000000000000000', 'usd_price': '2063.719999999999800000'}, 'base_price': '123000000000000000', 'extra': '0', 'quantity': '1', 'salt': '40894784561982867332627611566104062480602654460596944182411762954639387733994', 'v': 27, 'r': '0xec2934828c5ebb8354975fd34b5f3fd51f51e230dd6fe8e97aa78427e5857763', 's': '0x51cf8bf01f1c686bd8e5305214f69115b50dc0b373f12e9ebd514a29ec2eea23', 'approved_on_chain': False, 'cancelled': False, 'finalized': False, 'marked_invalid': False, 'prefixed_hash': '0xba53282646dc38c15244d552e74929520c75411ac688c3cd198fd49c5f8cea34'}]</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
